--- a/mobi_client/mobi_client/mobi_config/excel/装备表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/装备表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113D0D1E-EECD-4A0F-8EB0-522B4485816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D6D61-593B-4362-A239-A7C713AC5643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="equip" sheetId="2" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/装备表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/装备表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="equip" sheetId="2" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -487,37 +487,28 @@
     <t>200011;0</t>
   </si>
   <si>
-    <t>200011;8</t>
+    <t>200012;4</t>
+  </si>
+  <si>
+    <t>200012;2|200013;1</t>
+  </si>
+  <si>
+    <t>突破次数</t>
+  </si>
+  <si>
+    <t>突破消耗货币量</t>
+  </si>
+  <si>
+    <t>200011;5</t>
+  </si>
+  <si>
+    <t>200012;1</t>
+  </si>
+  <si>
+    <t>200011;5|200012;1</t>
   </si>
   <si>
     <t>200012;2</t>
-  </si>
-  <si>
-    <t>200011;6|200012;3</t>
-  </si>
-  <si>
-    <t>200011;6|200012;5</t>
-  </si>
-  <si>
-    <t>200012;8</t>
-  </si>
-  <si>
-    <t>200011;4|200012;8</t>
-  </si>
-  <si>
-    <t>突破次数</t>
-  </si>
-  <si>
-    <t>突破消耗货币量</t>
-  </si>
-  <si>
-    <t>200011;5</t>
-  </si>
-  <si>
-    <t>200012;1</t>
-  </si>
-  <si>
-    <t>200011;5|200012;1</t>
   </si>
   <si>
     <t>200011;5|200012;2</t>
@@ -633,7 +624,7 @@
     <t>equip_suit_7</t>
   </si>
   <si>
-    <t>释放必杀技时伤害提升30%,最多触发2次</t>
+    <t>释放必杀技时伤害提升30%，最多触发2次</t>
   </si>
   <si>
     <t>equip_suit_8</t>
@@ -1958,7 +1949,7 @@
   <sheetPr/>
   <dimension ref="A1:Q221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -10728,8 +10719,8 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -10841,17 +10832,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <f>SUM($C$5:C6)*0.8</f>
-        <v>80</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>113</v>
+        <f>SUM($C$5:C6)*0.6</f>
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>IF(RIGHT(E6,2)*1=0,"","200011;"&amp;RIGHT(E6,2)/10)&amp;IF(MOD(INT(E6/100)*100,1000)=0,"","|"&amp;"200012;"&amp;INT(RIGHT(E6,3)/100))&amp;IF(MOD(INT(E6/1000)*1000,10000)=0,"","|"&amp;"200013;"&amp;INT(E6/1000))</f>
+        <v>200011;3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10862,17 +10854,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
       </c>
       <c r="E7" s="1">
-        <f>SUM($C$5:C7)*0.8</f>
-        <v>200</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>114</v>
+        <f>SUM($C$5:C7)*0.6</f>
+        <v>60</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" ref="F7:F34" si="0">IF(RIGHT(E7,2)*1=0,"","200011;"&amp;RIGHT(E7,2)/10)&amp;IF(MOD(INT(E7/100)*100,1000)=0,"","|"&amp;"200012;"&amp;INT(RIGHT(E7,3)/100))&amp;IF(MOD(INT(E7/1000)*1000,10000)=0,"","|"&amp;"200013;"&amp;INT(E7/1000))</f>
+        <v>200011;6</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10883,17 +10876,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>300</v>
       </c>
       <c r="E8" s="1">
-        <f>SUM($C$5:C8)*0.8</f>
-        <v>360</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>115</v>
+        <f>SUM($C$5:C8)*0.6</f>
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>200011;9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10904,17 +10898,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1">
         <v>400</v>
       </c>
       <c r="E9" s="1">
-        <f>SUM($C$5:C9)*0.8</f>
-        <v>560</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>116</v>
+        <f>SUM($C$5:C9)*0.6</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>200011;2|200012;1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10925,17 +10920,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1">
         <v>500</v>
       </c>
       <c r="E10" s="1">
-        <f>SUM($C$5:C10)*0.8</f>
-        <v>800</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>117</v>
+        <f>SUM($C$5:C10)*0.6</f>
+        <v>180</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>200011;8|200012;1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10946,17 +10942,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1">
         <v>600</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM($C$5:C11)*0.8</f>
-        <v>1120</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>118</v>
+        <f>SUM($C$5:C11)*0.6</f>
+        <v>240</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>200011;4|200012;2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10967,18 +10964,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1">
         <v>700</v>
       </c>
       <c r="E12" s="1">
-        <f>SUM($C$5:C12)*0.8</f>
-        <v>1520</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f>IF(RIGHT(E12,2)*1=0,"","200011;"&amp;RIGHT(E12,2)/10&amp;"|")&amp;"200012;"&amp;INT(RIGHT(E12,3)/100)&amp;"|"&amp;"200012;"&amp;INT(E12/1000)</f>
-        <v>200011;2|200012;5|200012;1</v>
+        <f>SUM($C$5:C12)*0.6</f>
+        <v>300</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10989,18 +10985,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1">
         <v>800</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM($C$5:C13)*0.8</f>
-        <v>2000</v>
+        <f>SUM($C$5:C13)*0.6</f>
+        <v>360</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(RIGHT(E13,2)*1=0,"","200011;"&amp;RIGHT(E13,2)/10&amp;"|")&amp;"200012;"&amp;INT(RIGHT(E13,3)/100)&amp;"|"&amp;"200012;"&amp;INT(E13/1000)</f>
-        <v>200012;0|200012;2</v>
+        <f t="shared" si="0"/>
+        <v>200011;6|200012;3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -11011,18 +11007,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
         <v>1000</v>
       </c>
       <c r="E14" s="1">
-        <f>SUM($C$5:C14)*0.8</f>
-        <v>2560</v>
+        <f>SUM($C$5:C14)*0.6</f>
+        <v>420</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(RIGHT(E14,2)*1=0,"","200011;"&amp;RIGHT(E14,2)/10&amp;"|")&amp;"200012;"&amp;INT(RIGHT(E14,3)/100)&amp;"|"&amp;"200012;"&amp;INT(E14/1000)</f>
-        <v>200011;6|200012;5|200012;2</v>
+        <f t="shared" si="0"/>
+        <v>200011;2|200012;4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11033,18 +11029,18 @@
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D15" s="1">
         <v>1200</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM($C$5:C15)*0.8</f>
-        <v>3200</v>
+        <f>SUM($C$5:C15)*0.6</f>
+        <v>540</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" ref="F15:F34" si="0">IF(RIGHT(E15,2)*1=0,"","200011;"&amp;RIGHT(E15,2)/10&amp;"|")&amp;"200012;"&amp;INT(RIGHT(E15,3)/100)&amp;"|"&amp;"200012;"&amp;INT(E15/1000)</f>
-        <v>200012;2|200012;3</v>
+        <f t="shared" si="0"/>
+        <v>200011;4|200012;5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11055,18 +11051,18 @@
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="D16" s="1">
         <v>1400</v>
       </c>
       <c r="E16" s="1">
-        <f>SUM($C$5:C16)*0.8</f>
-        <v>3920</v>
+        <f>SUM($C$5:C16)*0.6</f>
+        <v>660</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;9|200012;3</v>
+        <v>200011;6|200012;6</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -11077,18 +11073,18 @@
         <v>13</v>
       </c>
       <c r="C17" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D17" s="1">
         <v>1600</v>
       </c>
       <c r="E17" s="1">
-        <f>SUM($C$5:C17)*0.8</f>
-        <v>4720</v>
+        <f>SUM($C$5:C17)*0.6</f>
+        <v>780</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;7|200012;4</v>
+        <v>200011;8|200012;7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -11099,18 +11095,17 @@
         <v>14</v>
       </c>
       <c r="C18" s="1">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="D18" s="1">
         <v>1800</v>
       </c>
       <c r="E18" s="1">
-        <f>SUM($C$5:C18)*0.8</f>
-        <v>5680</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>200011;8|200012;6|200012;5</v>
+        <f>SUM($C$5:C18)*0.6</f>
+        <v>900</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -11121,18 +11116,18 @@
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1">
         <v>2000</v>
       </c>
       <c r="E19" s="1">
-        <f>SUM($C$5:C19)*0.8</f>
-        <v>6800</v>
+        <f>SUM($C$5:C19)*0.6</f>
+        <v>1020</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200012;8|200012;6</v>
+        <v>200011;2|200013;1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -11143,18 +11138,18 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="D20" s="1">
         <v>2500</v>
       </c>
       <c r="E20" s="1">
-        <f>SUM($C$5:C20)*0.8</f>
-        <v>8080</v>
+        <f>SUM($C$5:C20)*0.6</f>
+        <v>1320</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;8|200012;0|200012;8</v>
+        <v>200011;2|200012;3|200013;1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -11165,18 +11160,18 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="D21" s="1">
         <v>3000</v>
       </c>
       <c r="E21" s="1">
-        <f>SUM($C$5:C21)*0.8</f>
-        <v>9520</v>
+        <f>SUM($C$5:C21)*0.6</f>
+        <v>1620</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;5|200012;9</v>
+        <v>200011;2|200012;6|200013;1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11187,18 +11182,18 @@
         <v>18</v>
       </c>
       <c r="C22" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D22" s="1">
         <v>3500</v>
       </c>
       <c r="E22" s="1">
-        <f>SUM($C$5:C22)*0.8</f>
-        <v>11120</v>
+        <f>SUM($C$5:C22)*0.6</f>
+        <v>1920</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;1|200012;11</v>
+        <v>200011;2|200012;9|200013;1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11209,18 +11204,18 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D23" s="1">
         <v>4000</v>
       </c>
       <c r="E23" s="1">
-        <f>SUM($C$5:C23)*0.8</f>
-        <v>13120</v>
+        <f>SUM($C$5:C23)*0.6</f>
+        <v>2220</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;1|200012;13</v>
+        <v>200011;2|200012;2|200013;2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11231,18 +11226,18 @@
         <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="D24" s="1">
         <v>5000</v>
       </c>
       <c r="E24" s="1">
-        <f>SUM($C$5:C24)*0.8</f>
-        <v>15520</v>
+        <f>SUM($C$5:C24)*0.6</f>
+        <v>2520</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;5|200012;15</v>
+        <v>200011;2|200012;5|200013;2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11253,18 +11248,18 @@
         <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="1">
         <v>5000</v>
       </c>
       <c r="E25" s="1">
-        <f>SUM($C$5:C25)*0.8</f>
-        <v>18320</v>
+        <f>SUM($C$5:C25)*0.6</f>
+        <v>3120</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;3|200012;18</v>
+        <v>200011;2|200012;1|200013;3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11275,18 +11270,18 @@
         <v>22</v>
       </c>
       <c r="C26" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="1">
         <v>5000</v>
       </c>
       <c r="E26" s="1">
-        <f>SUM($C$5:C26)*0.8</f>
-        <v>21520</v>
+        <f>SUM($C$5:C26)*0.6</f>
+        <v>3720</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;5|200012;21</v>
+        <v>200011;2|200012;7|200013;3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11297,18 +11292,18 @@
         <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="1">
         <v>5000</v>
       </c>
       <c r="E27" s="1">
-        <f>SUM($C$5:C27)*0.8</f>
-        <v>25120</v>
+        <f>SUM($C$5:C27)*0.6</f>
+        <v>4320</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;1|200012;25</v>
+        <v>200011;2|200012;3|200013;4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11319,18 +11314,18 @@
         <v>24</v>
       </c>
       <c r="C28" s="1">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D28" s="1">
         <v>5000</v>
       </c>
       <c r="E28" s="1">
-        <f>SUM($C$5:C28)*0.8</f>
-        <v>29120</v>
+        <f>SUM($C$5:C28)*0.6</f>
+        <v>4920</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;1|200012;29</v>
+        <v>200011;2|200012;9|200013;4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -11341,18 +11336,18 @@
         <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D29" s="1">
         <v>5000</v>
       </c>
       <c r="E29" s="1">
-        <f>SUM($C$5:C29)*0.8</f>
-        <v>33920</v>
+        <f>SUM($C$5:C29)*0.6</f>
+        <v>5520</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;9|200012;33</v>
+        <v>200011;2|200012;5|200013;5</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -11363,18 +11358,18 @@
         <v>26</v>
       </c>
       <c r="C30" s="1">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="D30" s="1">
         <v>5000</v>
       </c>
       <c r="E30" s="1">
-        <f>SUM($C$5:C30)*0.8</f>
-        <v>39520</v>
+        <f>SUM($C$5:C30)*0.6</f>
+        <v>6120</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;5|200012;39</v>
+        <v>200011;2|200012;1|200013;6</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -11385,18 +11380,18 @@
         <v>27</v>
       </c>
       <c r="C31" s="1">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="D31" s="1">
         <v>5000</v>
       </c>
       <c r="E31" s="1">
-        <f>SUM($C$5:C31)*0.8</f>
-        <v>45920</v>
+        <f>SUM($C$5:C31)*0.6</f>
+        <v>6720</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;9|200012;45</v>
+        <v>200011;2|200012;7|200013;6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -11407,18 +11402,18 @@
         <v>28</v>
       </c>
       <c r="C32" s="1">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="D32" s="1">
         <v>5000</v>
       </c>
       <c r="E32" s="1">
-        <f>SUM($C$5:C32)*0.8</f>
-        <v>53120</v>
+        <f>SUM($C$5:C32)*0.6</f>
+        <v>7320</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;1|200012;53</v>
+        <v>200011;2|200012;3|200013;7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -11429,18 +11424,18 @@
         <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D33" s="1">
         <v>5000</v>
       </c>
       <c r="E33" s="1">
-        <f>SUM($C$5:C33)*0.8</f>
-        <v>61120</v>
+        <f>SUM($C$5:C33)*0.6</f>
+        <v>7920</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;1|200012;61</v>
+        <v>200011;2|200012;9|200013;7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -11451,18 +11446,18 @@
         <v>30</v>
       </c>
       <c r="C34" s="1">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="D34" s="1">
         <v>5000</v>
       </c>
       <c r="E34" s="1">
-        <f>SUM($C$5:C34)*0.8</f>
-        <v>73120</v>
+        <f>SUM($C$5:C34)*0.6</f>
+        <v>8520</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>200011;2|200012;1|200012;73</v>
+        <v>200011;2|200012;5|200013;8</v>
       </c>
     </row>
   </sheetData>
@@ -11494,10 +11489,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>105</v>
@@ -11552,7 +11547,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11566,7 +11561,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11580,7 +11575,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11594,7 +11589,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11608,7 +11603,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -11624,7 +11619,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11646,28 +11641,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:9">
@@ -11675,28 +11670,28 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11733,19 +11728,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4" s="9">
         <v>100</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G4" s="9">
         <v>2</v>
@@ -11754,7 +11749,7 @@
         <v>5001</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11762,19 +11757,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="9">
         <v>100</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G5" s="9">
         <v>2</v>
@@ -11783,7 +11778,7 @@
         <v>5002</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11791,19 +11786,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E6" s="9">
         <v>150</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G6" s="9">
         <v>2</v>
@@ -11812,7 +11807,7 @@
         <v>5003</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11820,19 +11815,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E7" s="9">
         <v>100</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G7" s="9">
         <v>2</v>
@@ -11841,7 +11836,7 @@
         <v>5004</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11849,19 +11844,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8" s="9">
         <v>100</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G8" s="9">
         <v>2</v>
@@ -11870,7 +11865,7 @@
         <v>5005</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11878,19 +11873,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E9" s="9">
         <v>150</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G9" s="9">
         <v>2</v>
@@ -11899,7 +11894,7 @@
         <v>5006</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11907,19 +11902,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E10" s="9">
         <v>100</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G10" s="9">
         <v>2</v>
@@ -11928,7 +11923,7 @@
         <v>5007</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11936,19 +11931,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E11" s="9">
         <v>100</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G11" s="9">
         <v>2</v>
@@ -11957,7 +11952,7 @@
         <v>5008</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11965,19 +11960,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E12" s="9">
         <v>150</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G12" s="9">
         <v>2</v>
@@ -11986,7 +11981,7 @@
         <v>5009</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11994,19 +11989,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E13" s="9">
         <v>100</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G13" s="9">
         <v>2</v>
@@ -12015,7 +12010,7 @@
         <v>5010</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12023,19 +12018,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E14" s="9">
         <v>100</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G14" s="9">
         <v>2</v>
@@ -12044,7 +12039,7 @@
         <v>5011</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12052,19 +12047,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E15" s="9">
         <v>150</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G15" s="9">
         <v>2</v>
@@ -12073,7 +12068,7 @@
         <v>5012</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/mobi_client/mobi_client/mobi_config/excel/装备表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/装备表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="equip" sheetId="2" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -610,6 +610,9 @@
   </si>
   <si>
     <t>equip_suit_5</t>
+  </si>
+  <si>
+    <t>赠别故人杨柳</t>
   </si>
   <si>
     <t>每当友方单位阵亡，恢复5%生命值</t>
@@ -1949,8 +1952,8 @@
   <sheetPr/>
   <dimension ref="A1:Q221"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10719,8 +10722,8 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -11618,8 +11621,8 @@
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11847,7 +11850,7 @@
         <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>143</v>
@@ -11865,7 +11868,7 @@
         <v>5005</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11873,7 +11876,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>73</v>
@@ -11894,7 +11897,7 @@
         <v>5006</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11902,7 +11905,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
@@ -11923,7 +11926,7 @@
         <v>5007</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11931,7 +11934,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>81</v>
@@ -11952,7 +11955,7 @@
         <v>5008</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11960,7 +11963,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>85</v>
@@ -11981,7 +11984,7 @@
         <v>5009</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11989,7 +11992,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>89</v>
@@ -12010,7 +12013,7 @@
         <v>5010</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -12018,7 +12021,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>93</v>
@@ -12039,7 +12042,7 @@
         <v>5011</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12047,7 +12050,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>97</v>
@@ -12068,7 +12071,7 @@
         <v>5012</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
